--- a/Assignment_1/energy_use_new.xlsx
+++ b/Assignment_1/energy_use_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA8A799-1730-4C05-961E-5E2C2B56ADBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126D178-BEE6-4ABB-8EB9-9606E41756C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="264" windowWidth="17304" windowHeight="11484" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="10992" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -170,62 +171,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -234,9 +180,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -247,58 +191,282 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC158F0-E8DE-4F36-AD42-044F64E66C55}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,392 +796,435 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>8</v>
       </c>
       <c r="D2" s="21">
         <f>C2/G2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="25">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="32">
         <v>23</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="29">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="14">
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <f>1.32*2</f>
         <v>2.64</v>
       </c>
-      <c r="D3" s="21">
-        <f t="shared" ref="D3" si="0">C3/G3</f>
+      <c r="D3" s="22">
+        <f t="shared" ref="D3:D11" si="0">C3/G3</f>
         <v>0.11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="33">
         <v>23</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.5</v>
       </c>
-      <c r="D4" s="21">
-        <f t="shared" ref="D4:D18" si="1">C4/G4</f>
+      <c r="D4" s="22">
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="26">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="33">
         <v>20</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>3.9</v>
       </c>
-      <c r="D5" s="21">
-        <f t="shared" si="1"/>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="26">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="33">
         <v>18</v>
       </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>0.5</v>
       </c>
-      <c r="D6" s="21">
-        <f t="shared" si="1"/>
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="26">
         <v>18</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="33">
         <v>23</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="35">
         <v>0</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="36">
         <f>0.6*2</f>
         <v>1.2</v>
       </c>
-      <c r="D7" s="21">
-        <f t="shared" si="1"/>
+      <c r="D7" s="37">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="38">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="39">
         <v>23</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
         <v>2.5</v>
       </c>
       <c r="D8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="25">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="32">
         <v>22</v>
       </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
         <v>1.44</v>
       </c>
-      <c r="D9" s="21">
-        <f t="shared" si="1"/>
+      <c r="D9" s="22">
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="26">
         <v>20</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="33">
         <v>23</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
         <v>1.94</v>
       </c>
-      <c r="D10" s="21">
-        <f t="shared" si="1"/>
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="26">
+        <v>17</v>
+      </c>
+      <c r="F10" s="33">
+        <v>22</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <v>6</v>
+      </c>
+      <c r="G11" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="47">
+        <f>C12/G12</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E12" s="48">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>23</v>
+      </c>
+      <c r="G12" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="23">
+        <f>C13/G13</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>18</v>
+      </c>
+      <c r="F13" s="14">
+        <v>23</v>
+      </c>
+      <c r="G13" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14" s="23">
+        <f>C14/G14</f>
+        <v>5.8333333333333336E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>23</v>
+      </c>
+      <c r="G14" s="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="23">
+        <f>C15/G15</f>
+        <v>0.24</v>
+      </c>
+      <c r="E15" s="27">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="D16" s="23">
+        <f>C16/G16</f>
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="27">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14">
+        <v>8</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="24">
+        <f>C17/G17</f>
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="28">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15">
         <v>22</v>
       </c>
-      <c r="G10" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22">
-        <v>9.9</v>
-      </c>
-      <c r="D11" s="23">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="G13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.22</v>
-      </c>
-      <c r="D14" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="G14">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="21">
-        <f>C15/G15</f>
-        <v>1.2</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="D16" s="21">
-        <f>C16/G16</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="D17" s="21">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
+      <c r="G17" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D18" s="21">
-        <f t="shared" si="1"/>
-        <v>5.8333333333333336E-3</v>
-      </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assignment_1/energy_use_new.xlsx
+++ b/Assignment_1/energy_use_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126D178-BEE6-4ABB-8EB9-9606E41756C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5169C0D-8B36-4FB0-8B71-2DD5133B1D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="10992" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assignment_1/energy_use_new.xlsx
+++ b/Assignment_1/energy_use_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5169C0D-8B36-4FB0-8B71-2DD5133B1D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E560A59-E886-40BA-94C9-20CBFC1049BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="10992" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="3948" yWindow="672" windowWidth="17280" windowHeight="10488" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Appliances</t>
   </si>
@@ -101,16 +101,7 @@
     <t>Daily usage [kWh]</t>
   </si>
   <si>
-    <t>Length: Power use per day [h]</t>
-  </si>
-  <si>
-    <t>Power use [kW]</t>
-  </si>
-  <si>
     <t>Hourly usage [kWh]</t>
-  </si>
-  <si>
-    <t>Power Use [kW]</t>
   </si>
 </sst>
 </file>
@@ -784,7 +775,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -1073,7 +1064,7 @@
         <v>0.01</v>
       </c>
       <c r="D12" s="47">
-        <f>C12/G12</f>
+        <f t="shared" ref="D12:D17" si="1">C12/G12</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="E12" s="48">
@@ -1097,7 +1088,7 @@
         <v>0.27</v>
       </c>
       <c r="D13" s="23">
-        <f>C13/G13</f>
+        <f t="shared" si="1"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="E13" s="27">
@@ -1121,7 +1112,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D14" s="23">
-        <f>C14/G14</f>
+        <f t="shared" si="1"/>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="E14" s="27">
@@ -1145,7 +1136,7 @@
         <v>0.24</v>
       </c>
       <c r="D15" s="23">
-        <f>C15/G15</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="E15" s="27">
@@ -1169,7 +1160,7 @@
         <v>0.22</v>
       </c>
       <c r="D16" s="23">
-        <f>C16/G16</f>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
       <c r="E16" s="27">
@@ -1193,7 +1184,7 @@
         <v>0.6</v>
       </c>
       <c r="D17" s="24">
-        <f>C17/G17</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="E17" s="28">
@@ -1215,18 +1206,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G20" s="45"/>
     </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
